--- a/words.xlsx
+++ b/words.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="225">
   <si>
     <t>单词 (Word)</t>
   </si>
@@ -62,6 +62,30 @@
   </si>
   <si>
     <t>例句2中文 (CN2)</t>
+  </si>
+  <si>
+    <t>例句3 (Sentence3)</t>
+  </si>
+  <si>
+    <t>例句3中文 (CN3)</t>
+  </si>
+  <si>
+    <t>例句4 (Sentence4)</t>
+  </si>
+  <si>
+    <t>例句4中文 (CN4)</t>
+  </si>
+  <si>
+    <t>例句5 (Sentence5)</t>
+  </si>
+  <si>
+    <t>例句5中文 (CN5)</t>
+  </si>
+  <si>
+    <t>近义词 (Synonyms)</t>
+  </si>
+  <si>
+    <t>反义词 (Antonyms)</t>
   </si>
   <si>
     <t>Incoterms</t>
@@ -2766,9 +2790,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
@@ -3087,15 +3114,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="A1" sqref="A1:S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" ht="60.75" spans="1:11">
+    <row r="1" ht="60.75" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3129,705 +3156,729 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" ht="128.25" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="2" t="s">
+    <row r="2" ht="128.25" spans="1:19">
+      <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="D2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="3" ht="126.75" spans="1:11">
-      <c r="A3" s="1" t="s">
+    <row r="3" ht="126.75" spans="1:19">
+      <c r="A3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" ht="156.75" spans="1:19">
+      <c r="A4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" ht="128.25" spans="1:19">
+      <c r="A5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" ht="126.75" spans="1:19">
+      <c r="A6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" ht="112.5" spans="1:19">
+      <c r="A7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" ht="128.25" spans="1:19">
+      <c r="A8" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" ht="113.25" spans="1:19">
+      <c r="A9" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" ht="114.75" spans="1:19">
+      <c r="A10" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" ht="113.25" spans="1:19">
+      <c r="A11" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" ht="99.75" spans="1:19">
+      <c r="A12" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" ht="114.75" spans="1:19">
+      <c r="A13" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>32</v>
+      <c r="E13" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>142</v>
       </c>
     </row>
-    <row r="4" ht="156.75" spans="1:11">
-      <c r="A4" s="1" t="s">
+    <row r="14" ht="128.25" spans="1:19">
+      <c r="A14" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" ht="99.75" spans="1:19">
+      <c r="A15" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" ht="113.25" spans="1:19">
+      <c r="A16" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" ht="128.25" spans="1:11">
-      <c r="A5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" ht="126.75" spans="1:11">
-      <c r="A6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" ht="112.5" spans="1:11">
-      <c r="A7" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" ht="128.25" spans="1:11">
-      <c r="A8" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" ht="113.25" spans="1:11">
-      <c r="A9" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" ht="114.75" spans="1:11">
-      <c r="A10" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="11" ht="113.25" spans="1:11">
-      <c r="A11" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="12" ht="99.75" spans="1:11">
-      <c r="A12" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="13" ht="114.75" spans="1:11">
-      <c r="A13" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="14" ht="128.25" spans="1:11">
-      <c r="A14" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="15" ht="99.75" spans="1:11">
-      <c r="A15" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="16" ht="113.25" spans="1:11">
-      <c r="A16" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>165</v>
+      <c r="E16" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="17" ht="99.75" spans="1:11">
-      <c r="A17" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="J17" s="2" t="s">
+      <c r="A17" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>175</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="18" ht="113.25" spans="1:11">
-      <c r="A18" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="I18" s="2" t="s">
+      <c r="A18" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>186</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="19" ht="84.75" spans="1:11">
-      <c r="A19" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="J19" s="2" t="s">
+      <c r="A19" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>196</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="20" ht="99.75" spans="1:11">
-      <c r="A20" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="J20" s="2" t="s">
+      <c r="A20" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>206</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="21" ht="99.75" spans="1:11">
-      <c r="A21" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="J21" s="2" t="s">
+      <c r="A21" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="K21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>216</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>
